--- a/medicine/Mort/Terrorisme_en_1965/Terrorisme_en_1965.xlsx
+++ b/medicine/Mort/Terrorisme_en_1965/Terrorisme_en_1965.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,19 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-10 mars, Singapour : une bombe explose dans un bâtiment de la Hongkong and Shanghai Bank, sur Orchard Road et fait trois morts et une trentaine de blessés[1]. Cet attentat intervient en pleine confrontation indonésio-malaisienne.
-Avril
-Mai
-Juin
-Juillet
-Août
-Septembre
-Octobre
-Novembre
-Décembre</t>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10 mars, Singapour : une bombe explose dans un bâtiment de la Hongkong and Shanghai Bank, sur Orchard Road et fait trois morts et une trentaine de blessés. Cet attentat intervient en pleine confrontation indonésio-malaisienne.</t>
         </is>
       </c>
     </row>
